--- a/downloaded_files/SBES361_Lecture-35397.xlsx
+++ b/downloaded_files/SBES361_Lecture-35397.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,15 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>1210193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد طه وصال ويس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Muhammed taha wesal</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210129</x:t>
   </x:si>
   <x:si>
@@ -51,6 +60,15 @@
     <x:t>Jumana Ahmed Mohamed El-Ashry</x:t>
   </x:si>
   <x:si>
+    <x:t>1210218</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حمزة ايمن محي الدين الغنيمي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hamza Ayman Mohyeldin Elghonemy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210219</x:t>
   </x:si>
   <x:si>
@@ -69,6 +87,15 @@
     <x:t>Rana Yasser Mohamed Sabry El Baga</x:t>
   </x:si>
   <x:si>
+    <x:t>1210171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلسبيل مصطفى رجاء محمد القطقاط</x:t>
+  </x:si>
+  <x:si>
+    <x:t>salsabeel mostafa ragaa mohamad al alkitkat</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210056</x:t>
   </x:si>
   <x:si>
@@ -105,6 +132,15 @@
     <x:t>SHEHAP TAREK HELMY ELHADARY</x:t>
   </x:si>
   <x:si>
+    <x:t>1210246</x:t>
+  </x:si>
+  <x:si>
+    <x:t>طارق وليد فتحي محمد عارف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tarek Waleed Fathy Mohamed Aref</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210148</x:t>
   </x:si>
   <x:si>
@@ -195,6 +231,15 @@
     <x:t>Mohamed Hazem Hamed Abd-Elmaksoud</x:t>
   </x:si>
   <x:si>
+    <x:t>4220142</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود محمد عبدالفتاح السيد متولى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Mohamed abd alfatah Alsayed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210077</x:t>
   </x:si>
   <x:si>
@@ -213,6 +258,15 @@
     <x:t>Malak Ahmed Hosny</x:t>
   </x:si>
   <x:si>
+    <x:t>1210084</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مهراتى سامح ميلاد بباوى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mehrati Sameh Milad Bebawy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210163</x:t>
   </x:si>
   <x:si>
@@ -247,6 +301,33 @@
   </x:si>
   <x:si>
     <x:t>Hana Ahmed Ebrahim Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200883</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف احمد عفيفي منصور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Ahmed Afify Mansour</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف احمد محمد عوض حسن اللقانى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yousef ahmed mohamed awad hassan ellakany</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2220010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف حسانين احمد على السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Hassanein Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1190292</x:t>
@@ -371,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -681,7 +762,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="29.660625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="46.190625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -762,7 +843,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.666002662</x:v>
+        <x:v>45927.414371412</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -794,7 +875,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.4155689815</x:v>
+        <x:v>45906.666002662</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -826,7 +907,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6661969097</x:v>
+        <x:v>45906.4155689815</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -858,7 +939,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.441506794</x:v>
+        <x:v>45927.4485697107</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -890,7 +971,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.4145591782</x:v>
+        <x:v>45906.6661969097</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -922,7 +1003,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.666074919</x:v>
+        <x:v>45906.441506794</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -954,7 +1035,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.4204837616</x:v>
+        <x:v>45927.4227176736</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -986,7 +1067,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4146051273</x:v>
+        <x:v>45906.4145591782</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1018,7 +1099,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6654144329</x:v>
+        <x:v>45906.666074919</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1050,7 +1131,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.810418669</x:v>
+        <x:v>45909.4204837616</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1082,7 +1163,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4147752315</x:v>
+        <x:v>45906.4146051273</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1114,7 +1195,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6659766204</x:v>
+        <x:v>45927.4318018866</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1146,7 +1227,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.669274456</x:v>
+        <x:v>45906.6654144329</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1178,7 +1259,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4791952546</x:v>
+        <x:v>45906.810418669</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1210,7 +1291,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4176945255</x:v>
+        <x:v>45906.4147752315</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1242,7 +1323,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4144965625</x:v>
+        <x:v>45906.6659766204</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1274,7 +1355,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6813268519</x:v>
+        <x:v>45906.669274456</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1306,7 +1387,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4145881944</x:v>
+        <x:v>45906.4791952546</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1338,7 +1419,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.4158375347</x:v>
+        <x:v>45906.4176945255</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1370,7 +1451,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.5663584144</x:v>
+        <x:v>45906.4144965625</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1402,7 +1483,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4148792014</x:v>
+        <x:v>45906.6813268519</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1434,7 +1515,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4450273958</x:v>
+        <x:v>45906.4145881944</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1466,7 +1547,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4235761574</x:v>
+        <x:v>45927.4226590625</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1498,7 +1579,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6658353009</x:v>
+        <x:v>45909.4158375347</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1530,7 +1611,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6780194444</x:v>
+        <x:v>45906.5663584144</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1548,6 +1629,294 @@
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
     </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45927.4284480671</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45906.4148792014</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45906.4450273958</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45906.4235761574</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45906.6658353009</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45927.4150282755</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45927.4301510069</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45927.4155155093</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45906.6780194444</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1560,6 +1929,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Machine learning in Medicine (SBES361) Location : [18101]18101-45-الجيزة الرئيسي Time : Tuesday(9:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/SBES361_Lecture-35397.xlsx
+++ b/downloaded_files/SBES361_Lecture-35397.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -139,6 +139,15 @@
   </x:si>
   <x:si>
     <x:t>Tarek Waleed Fathy Mohamed Aref</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عاليه طارق عمر طلبه زايد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alia Tarek Omr Tolba Zayed</x:t>
   </x:si>
   <x:si>
     <x:t>1210148</x:t>
@@ -452,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1227,7 +1236,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6654144329</x:v>
+        <x:v>45929.6218293171</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1259,7 +1268,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.810418669</x:v>
+        <x:v>45906.6654144329</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1291,7 +1300,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4147752315</x:v>
+        <x:v>45906.810418669</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1323,7 +1332,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6659766204</x:v>
+        <x:v>45906.4147752315</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1355,7 +1364,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.669274456</x:v>
+        <x:v>45906.6659766204</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1387,7 +1396,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4791952546</x:v>
+        <x:v>45906.669274456</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1419,7 +1428,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4176945255</x:v>
+        <x:v>45906.4791952546</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1451,7 +1460,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4144965625</x:v>
+        <x:v>45906.4176945255</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1483,7 +1492,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6813268519</x:v>
+        <x:v>45906.4144965625</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1515,7 +1524,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4145881944</x:v>
+        <x:v>45906.6813268519</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1547,7 +1556,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.4226590625</x:v>
+        <x:v>45906.4145881944</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1579,7 +1588,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.4158375347</x:v>
+        <x:v>45927.4226590625</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1611,7 +1620,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.5663584144</x:v>
+        <x:v>45909.4158375347</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1643,7 +1652,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.4284480671</x:v>
+        <x:v>45906.5663584144</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1675,7 +1684,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4148792014</x:v>
+        <x:v>45927.4284480671</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1707,7 +1716,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4450273958</x:v>
+        <x:v>45906.4148792014</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1739,7 +1748,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4235761574</x:v>
+        <x:v>45906.4450273958</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1771,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6658353009</x:v>
+        <x:v>45906.4235761574</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1803,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45927.4150282755</x:v>
+        <x:v>45906.6658353009</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1835,7 +1844,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45927.4301510069</x:v>
+        <x:v>45927.4150282755</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1867,7 +1876,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45927.4155155093</x:v>
+        <x:v>45927.4301510069</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1899,7 +1908,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6780194444</x:v>
+        <x:v>45927.4155155093</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1916,6 +1925,38 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45906.6780194444</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
